--- a/DIC/Lab2/Task5/N=6/task5_N6.xlsx
+++ b/DIC/Lab2/Task5/N=6/task5_N6.xlsx
@@ -542,61 +542,61 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.087e-12</v>
+        <v>6.457e-12</v>
       </c>
       <c r="B2" t="n">
-        <v>5.551e-12</v>
+        <v>5.579e-12</v>
       </c>
       <c r="C2" t="n">
-        <v>5.819e-12</v>
+        <v>6.018e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>5.831e-12</v>
+        <v>5.284e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>5.225e-12</v>
+        <v>4.962e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>5.528e-12</v>
+        <v>5.123e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>4.912e-12</v>
+        <v>5.037e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>4.548e-12</v>
+        <v>4.801e-12</v>
       </c>
       <c r="I2" t="n">
+        <v>4.919e-12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.793e-12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.54e-12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.667e-12</v>
+      </c>
+      <c r="M2" t="n">
         <v>4.73e-12</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.914e-12</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.591e-12</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.752e-12</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.852e-12</v>
-      </c>
       <c r="N2" t="n">
-        <v>4.546e-12</v>
+        <v>4.483e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>4.699e-12</v>
+        <v>4.606e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>4.96e-12</v>
+        <v>4.887e-12</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.667e-12</v>
+        <v>4.57e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>4.814e-12</v>
+        <v>4.729e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>3.034e-11</v>
+        <v>3.006e-11</v>
       </c>
       <c r="T2" t="n">
         <v>25</v>
